--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama1-Itga2.xlsx
@@ -549,34 +549,34 @@
         <v>0.2728627660176361</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N2">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O2">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P2">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q2">
-        <v>0.1503829915356667</v>
+        <v>0.3998988669774444</v>
       </c>
       <c r="R2">
-        <v>1.353446923821</v>
+        <v>3.599089802797</v>
       </c>
       <c r="S2">
-        <v>0.1475744986776333</v>
+        <v>0.2011998777819247</v>
       </c>
       <c r="T2">
-        <v>0.1475744986776334</v>
+        <v>0.2011998777819247</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>4.883633</v>
       </c>
       <c r="O3">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P3">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q3">
         <v>0.09159362216677777</v>
@@ -635,10 +635,10 @@
         <v>0.824342599501</v>
       </c>
       <c r="S3">
-        <v>0.08988305615748417</v>
+        <v>0.04608321530102989</v>
       </c>
       <c r="T3">
-        <v>0.0898830561574842</v>
+        <v>0.04608321530102987</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N4">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O4">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P4">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q4">
-        <v>0.03503642432588889</v>
+        <v>0.04577226987511111</v>
       </c>
       <c r="R4">
-        <v>0.315327818933</v>
+        <v>0.411950428876</v>
       </c>
       <c r="S4">
-        <v>0.03438209801886802</v>
+        <v>0.02302926030843961</v>
       </c>
       <c r="T4">
-        <v>0.03438209801886803</v>
+        <v>0.0230292603084396</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +735,34 @@
         <v>0.2728627660176361</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N5">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O5">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P5">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q5">
-        <v>0.001042584048111111</v>
+        <v>0.005069123951777778</v>
       </c>
       <c r="R5">
-        <v>0.009383256433</v>
+        <v>0.045622115566</v>
       </c>
       <c r="S5">
-        <v>0.001023113163650583</v>
+        <v>0.00255041262624193</v>
       </c>
       <c r="T5">
-        <v>0.001023113163650583</v>
+        <v>0.00255041262624193</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,34 +797,34 @@
         <v>0.7271372339823639</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N6">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O6">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P6">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q6">
-        <v>0.4007475043193334</v>
+        <v>1.065668871757556</v>
       </c>
       <c r="R6">
-        <v>3.606727538874</v>
+        <v>9.591019845818002</v>
       </c>
       <c r="S6">
-        <v>0.3932633035313168</v>
+        <v>0.5361666772757208</v>
       </c>
       <c r="T6">
-        <v>0.3932633035313169</v>
+        <v>0.5361666772757206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,10 +871,10 @@
         <v>4.883633</v>
       </c>
       <c r="O7">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P7">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q7">
         <v>0.2440828920882222</v>
@@ -883,10 +883,10 @@
         <v>2.196746028794</v>
       </c>
       <c r="S7">
-        <v>0.2395244972046139</v>
+        <v>0.1228046691604629</v>
       </c>
       <c r="T7">
-        <v>0.239524497204614</v>
+        <v>0.1228046691604629</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N8">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O8">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P8">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q8">
-        <v>0.09336667308911113</v>
+        <v>0.1219760475048889</v>
       </c>
       <c r="R8">
-        <v>0.8403000578020001</v>
+        <v>1.097784427544</v>
       </c>
       <c r="S8">
-        <v>0.09162299428693149</v>
+        <v>0.06136943081584204</v>
       </c>
       <c r="T8">
-        <v>0.09162299428693152</v>
+        <v>0.06136943081584202</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,34 +983,34 @@
         <v>0.7271372339823639</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N9">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O9">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P9">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q9">
-        <v>0.002778325866888889</v>
+        <v>0.01350843437822222</v>
       </c>
       <c r="R9">
-        <v>0.025004932802</v>
+        <v>0.121575909404</v>
       </c>
       <c r="S9">
-        <v>0.002726438959501519</v>
+        <v>0.006796456730338173</v>
       </c>
       <c r="T9">
-        <v>0.00272643895950152</v>
+        <v>0.006796456730338173</v>
       </c>
     </row>
   </sheetData>
